--- a/Experiment/20181218.xlsx
+++ b/Experiment/20181218.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F49A4-86CA-445C-89B8-3E0D42B664B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647701F-7EA4-40AE-BF4E-D2F444741FE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
